--- a/rekapan runningan (version 1).xlsb.xlsx
+++ b/rekapan runningan (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Adhit\TEL-U\TUGAS AKHIR II\AAMIIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80507F23-3C1F-4540-900C-861D0024BDFD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9887DF-9A71-4187-B186-9D5009336AD4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3810" xr2:uid="{F8B9AB61-F2BA-4F70-AA70-95504CEA528B}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>Rf_trees</t>
   </si>
@@ -51,10 +52,10 @@
     <t>No</t>
   </si>
   <si>
-    <t>0.11888888888888889</t>
-  </si>
-  <si>
-    <t>0.10944444444444444</t>
+    <t>0.07055555555555555</t>
+  </si>
+  <si>
+    <t>0.068333333333333334</t>
   </si>
 </sst>
 </file>
@@ -97,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -106,7 +107,20 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3651BCAD-D81E-48DE-8AC9-B971AC446C7A}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,10 +447,10 @@
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -449,49 +463,166 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>1000</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7">
+        <v>7.1111111111110001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>50</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>60</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>70</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7">
+        <v>7.1111111111110001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>80</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>90</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11" t="s">
         <v>4</v>
       </c>
     </row>
